--- a/passenger_flows/weekend/ArrivalVolume-30min/13号线-idx-5.xlsx
+++ b/passenger_flows/weekend/ArrivalVolume-30min/13号线-idx-5.xlsx
@@ -625,106 +625,106 @@
         <v>11</v>
       </c>
       <c r="D2">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="E2">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="F2">
+        <v>460</v>
+      </c>
+      <c r="G2">
+        <v>493</v>
+      </c>
+      <c r="H2">
+        <v>493</v>
+      </c>
+      <c r="I2">
+        <v>453</v>
+      </c>
+      <c r="J2">
+        <v>383</v>
+      </c>
+      <c r="K2">
+        <v>275</v>
+      </c>
+      <c r="L2">
+        <v>79</v>
+      </c>
+      <c r="M2">
+        <v>69</v>
+      </c>
+      <c r="N2">
+        <v>66</v>
+      </c>
+      <c r="O2">
+        <v>95</v>
+      </c>
+      <c r="P2">
+        <v>84</v>
+      </c>
+      <c r="Q2">
+        <v>86</v>
+      </c>
+      <c r="R2">
+        <v>96</v>
+      </c>
+      <c r="S2">
+        <v>112</v>
+      </c>
+      <c r="T2">
+        <v>86</v>
+      </c>
+      <c r="U2">
+        <v>118</v>
+      </c>
+      <c r="V2">
+        <v>108</v>
+      </c>
+      <c r="W2">
+        <v>149</v>
+      </c>
+      <c r="X2">
+        <v>186</v>
+      </c>
+      <c r="Y2">
+        <v>234</v>
+      </c>
+      <c r="Z2">
+        <v>272</v>
+      </c>
+      <c r="AA2">
+        <v>470</v>
+      </c>
+      <c r="AB2">
+        <v>473</v>
+      </c>
+      <c r="AC2">
+        <v>269</v>
+      </c>
+      <c r="AD2">
+        <v>493</v>
+      </c>
+      <c r="AE2">
+        <v>490</v>
+      </c>
+      <c r="AF2">
         <v>472</v>
       </c>
-      <c r="G2">
-        <v>511</v>
-      </c>
-      <c r="H2">
-        <v>511</v>
-      </c>
-      <c r="I2">
-        <v>472</v>
-      </c>
-      <c r="J2">
-        <v>396</v>
-      </c>
-      <c r="K2">
-        <v>281</v>
-      </c>
-      <c r="L2">
-        <v>117</v>
-      </c>
-      <c r="M2">
-        <v>102</v>
-      </c>
-      <c r="N2">
-        <v>100</v>
-      </c>
-      <c r="O2">
-        <v>138</v>
-      </c>
-      <c r="P2">
-        <v>121</v>
-      </c>
-      <c r="Q2">
-        <v>125</v>
-      </c>
-      <c r="R2">
-        <v>141</v>
-      </c>
-      <c r="S2">
-        <v>168</v>
-      </c>
-      <c r="T2">
-        <v>125</v>
-      </c>
-      <c r="U2">
-        <v>170</v>
-      </c>
-      <c r="V2">
-        <v>158</v>
-      </c>
-      <c r="W2">
-        <v>224</v>
-      </c>
-      <c r="X2">
-        <v>273</v>
-      </c>
-      <c r="Y2">
-        <v>350</v>
-      </c>
-      <c r="Z2">
-        <v>281</v>
-      </c>
-      <c r="AA2">
-        <v>489</v>
-      </c>
-      <c r="AB2">
-        <v>489</v>
-      </c>
-      <c r="AC2">
-        <v>281</v>
-      </c>
-      <c r="AD2">
-        <v>511</v>
-      </c>
-      <c r="AE2">
-        <v>511</v>
-      </c>
-      <c r="AF2">
-        <v>483</v>
-      </c>
       <c r="AG2">
-        <v>427</v>
+        <v>409</v>
       </c>
       <c r="AH2">
-        <v>355</v>
+        <v>334</v>
       </c>
       <c r="AI2">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="AJ2">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="AK2">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AL2">
         <v>17</v>
@@ -741,112 +741,112 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D3">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="E3">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="F3">
-        <v>481</v>
+        <v>460</v>
       </c>
       <c r="G3">
-        <v>520</v>
+        <v>505</v>
       </c>
       <c r="H3">
-        <v>520</v>
+        <v>501</v>
       </c>
       <c r="I3">
-        <v>481</v>
+        <v>468</v>
       </c>
       <c r="J3">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="K3">
-        <v>286</v>
+        <v>275</v>
       </c>
       <c r="L3">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="M3">
-        <v>123</v>
+        <v>83</v>
       </c>
       <c r="N3">
+        <v>92</v>
+      </c>
+      <c r="O3">
+        <v>88</v>
+      </c>
+      <c r="P3">
+        <v>78</v>
+      </c>
+      <c r="Q3">
+        <v>100</v>
+      </c>
+      <c r="R3">
+        <v>99</v>
+      </c>
+      <c r="S3">
+        <v>106</v>
+      </c>
+      <c r="T3">
+        <v>106</v>
+      </c>
+      <c r="U3">
+        <v>116</v>
+      </c>
+      <c r="V3">
         <v>136</v>
       </c>
-      <c r="O3">
-        <v>132</v>
-      </c>
-      <c r="P3">
-        <v>114</v>
-      </c>
-      <c r="Q3">
-        <v>147</v>
-      </c>
-      <c r="R3">
-        <v>147</v>
-      </c>
-      <c r="S3">
-        <v>158</v>
-      </c>
-      <c r="T3">
-        <v>156</v>
-      </c>
-      <c r="U3">
-        <v>167</v>
-      </c>
-      <c r="V3">
-        <v>200</v>
-      </c>
       <c r="W3">
-        <v>256</v>
+        <v>170</v>
       </c>
       <c r="X3">
-        <v>338</v>
+        <v>225</v>
       </c>
       <c r="Y3">
-        <v>377</v>
+        <v>253</v>
       </c>
       <c r="Z3">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="AA3">
-        <v>498</v>
+        <v>476</v>
       </c>
       <c r="AB3">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="AC3">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="AD3">
-        <v>520</v>
+        <v>502</v>
       </c>
       <c r="AE3">
-        <v>520</v>
+        <v>507</v>
       </c>
       <c r="AF3">
-        <v>419</v>
+        <v>408</v>
       </c>
       <c r="AG3">
-        <v>322</v>
+        <v>307</v>
       </c>
       <c r="AH3">
-        <v>348</v>
+        <v>328</v>
       </c>
       <c r="AI3">
-        <v>262</v>
+        <v>246</v>
       </c>
       <c r="AJ3">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="AK3">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="AL3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AM3">
         <v>3</v>
@@ -860,112 +860,112 @@
         <v>6</v>
       </c>
       <c r="C4">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4">
-        <v>379</v>
+        <v>366</v>
       </c>
       <c r="E4">
-        <v>533</v>
+        <v>522</v>
       </c>
       <c r="F4">
-        <v>636</v>
+        <v>618</v>
       </c>
       <c r="G4">
-        <v>687</v>
+        <v>666</v>
       </c>
       <c r="H4">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="I4">
-        <v>636</v>
+        <v>605</v>
       </c>
       <c r="J4">
-        <v>533</v>
+        <v>512</v>
       </c>
       <c r="K4">
-        <v>379</v>
+        <v>362</v>
       </c>
       <c r="L4">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="M4">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="N4">
-        <v>107</v>
+        <v>72</v>
       </c>
       <c r="O4">
-        <v>164</v>
+        <v>113</v>
       </c>
       <c r="P4">
-        <v>152</v>
+        <v>104</v>
       </c>
       <c r="Q4">
-        <v>137</v>
+        <v>92</v>
       </c>
       <c r="R4">
+        <v>103</v>
+      </c>
+      <c r="S4">
+        <v>89</v>
+      </c>
+      <c r="T4">
+        <v>86</v>
+      </c>
+      <c r="U4">
+        <v>100</v>
+      </c>
+      <c r="V4">
+        <v>129</v>
+      </c>
+      <c r="W4">
+        <v>132</v>
+      </c>
+      <c r="X4">
         <v>150</v>
       </c>
-      <c r="S4">
-        <v>132</v>
-      </c>
-      <c r="T4">
-        <v>125</v>
-      </c>
-      <c r="U4">
-        <v>148</v>
-      </c>
-      <c r="V4">
-        <v>195</v>
-      </c>
-      <c r="W4">
-        <v>199</v>
-      </c>
-      <c r="X4">
-        <v>222</v>
-      </c>
       <c r="Y4">
-        <v>360</v>
+        <v>246</v>
       </c>
       <c r="Z4">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="AA4">
-        <v>659</v>
+        <v>633</v>
       </c>
       <c r="AB4">
-        <v>659</v>
+        <v>638</v>
       </c>
       <c r="AC4">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="AD4">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="AE4">
-        <v>687</v>
+        <v>655</v>
       </c>
       <c r="AF4">
-        <v>687</v>
+        <v>653</v>
       </c>
       <c r="AG4">
-        <v>653</v>
+        <v>620</v>
       </c>
       <c r="AH4">
-        <v>625</v>
+        <v>602</v>
       </c>
       <c r="AI4">
-        <v>397</v>
+        <v>373</v>
       </c>
       <c r="AJ4">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="AK4">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="AL4">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM4">
         <v>7</v>
@@ -976,118 +976,118 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C5">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D5">
-        <v>805</v>
+        <v>780</v>
       </c>
       <c r="E5">
-        <v>1133</v>
+        <v>1078</v>
       </c>
       <c r="F5">
-        <v>1352</v>
+        <v>1286</v>
       </c>
       <c r="G5">
-        <v>1462</v>
+        <v>1403</v>
       </c>
       <c r="H5">
-        <v>1462</v>
+        <v>1392</v>
       </c>
       <c r="I5">
-        <v>1352</v>
+        <v>1294</v>
       </c>
       <c r="J5">
-        <v>1133</v>
+        <v>1097</v>
       </c>
       <c r="K5">
-        <v>805</v>
+        <v>776</v>
       </c>
       <c r="L5">
-        <v>312</v>
+        <v>209</v>
       </c>
       <c r="M5">
+        <v>184</v>
+      </c>
+      <c r="N5">
+        <v>170</v>
+      </c>
+      <c r="O5">
+        <v>186</v>
+      </c>
+      <c r="P5">
+        <v>226</v>
+      </c>
+      <c r="Q5">
         <v>270</v>
       </c>
-      <c r="N5">
+      <c r="R5">
+        <v>269</v>
+      </c>
+      <c r="S5">
         <v>258</v>
       </c>
-      <c r="O5">
-        <v>270</v>
-      </c>
-      <c r="P5">
-        <v>334</v>
-      </c>
-      <c r="Q5">
-        <v>397</v>
-      </c>
-      <c r="R5">
-        <v>399</v>
-      </c>
-      <c r="S5">
-        <v>383</v>
-      </c>
       <c r="T5">
-        <v>404</v>
+        <v>273</v>
       </c>
       <c r="U5">
-        <v>423</v>
+        <v>294</v>
       </c>
       <c r="V5">
-        <v>390</v>
+        <v>262</v>
       </c>
       <c r="W5">
-        <v>508</v>
+        <v>342</v>
       </c>
       <c r="X5">
-        <v>584</v>
+        <v>392</v>
       </c>
       <c r="Y5">
-        <v>686</v>
+        <v>469</v>
       </c>
       <c r="Z5">
-        <v>805</v>
+        <v>771</v>
       </c>
       <c r="AA5">
-        <v>1401</v>
+        <v>1339</v>
       </c>
       <c r="AB5">
-        <v>1401</v>
+        <v>1335</v>
       </c>
       <c r="AC5">
-        <v>805</v>
+        <v>769</v>
       </c>
       <c r="AD5">
-        <v>1462</v>
+        <v>1402</v>
       </c>
       <c r="AE5">
-        <v>1462</v>
+        <v>1395</v>
       </c>
       <c r="AF5">
-        <v>1462</v>
+        <v>1410</v>
       </c>
       <c r="AG5">
-        <v>1382</v>
+        <v>1334</v>
       </c>
       <c r="AH5">
-        <v>1341</v>
+        <v>1292</v>
       </c>
       <c r="AI5">
-        <v>1008</v>
+        <v>945</v>
       </c>
       <c r="AJ5">
-        <v>704</v>
+        <v>667</v>
       </c>
       <c r="AK5">
-        <v>299</v>
+        <v>287</v>
       </c>
       <c r="AL5">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AM5">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:39">
@@ -1095,115 +1095,115 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D6">
-        <v>348</v>
+        <v>332</v>
       </c>
       <c r="E6">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="F6">
-        <v>584</v>
+        <v>567</v>
       </c>
       <c r="G6">
-        <v>631</v>
+        <v>613</v>
       </c>
       <c r="H6">
-        <v>631</v>
+        <v>616</v>
       </c>
       <c r="I6">
-        <v>584</v>
+        <v>559</v>
       </c>
       <c r="J6">
-        <v>489</v>
+        <v>476</v>
       </c>
       <c r="K6">
-        <v>348</v>
+        <v>335</v>
       </c>
       <c r="L6">
-        <v>277</v>
+        <v>185</v>
       </c>
       <c r="M6">
-        <v>279</v>
+        <v>187</v>
       </c>
       <c r="N6">
-        <v>234</v>
+        <v>158</v>
       </c>
       <c r="O6">
-        <v>237</v>
+        <v>163</v>
       </c>
       <c r="P6">
-        <v>267</v>
+        <v>182</v>
       </c>
       <c r="Q6">
-        <v>273</v>
+        <v>188</v>
       </c>
       <c r="R6">
-        <v>233</v>
+        <v>157</v>
       </c>
       <c r="S6">
-        <v>215</v>
+        <v>144</v>
       </c>
       <c r="T6">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="U6">
-        <v>225</v>
+        <v>152</v>
       </c>
       <c r="V6">
-        <v>232</v>
+        <v>155</v>
       </c>
       <c r="W6">
-        <v>216</v>
+        <v>142</v>
       </c>
       <c r="X6">
-        <v>292</v>
+        <v>199</v>
       </c>
       <c r="Y6">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="Z6">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="AA6">
-        <v>605</v>
+        <v>593</v>
       </c>
       <c r="AB6">
-        <v>605</v>
+        <v>576</v>
       </c>
       <c r="AC6">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="AD6">
-        <v>631</v>
+        <v>617</v>
       </c>
       <c r="AE6">
-        <v>585</v>
+        <v>553</v>
       </c>
       <c r="AF6">
-        <v>512</v>
+        <v>499</v>
       </c>
       <c r="AG6">
-        <v>413</v>
+        <v>402</v>
       </c>
       <c r="AH6">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="AI6">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="AJ6">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="AK6">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="AL6">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM6">
         <v>1</v>
@@ -1220,109 +1220,109 @@
         <v>13</v>
       </c>
       <c r="D7">
-        <v>434</v>
+        <v>414</v>
       </c>
       <c r="E7">
-        <v>610</v>
+        <v>598</v>
       </c>
       <c r="F7">
-        <v>728</v>
+        <v>693</v>
       </c>
       <c r="G7">
-        <v>787</v>
+        <v>754</v>
       </c>
       <c r="H7">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="I7">
-        <v>728</v>
+        <v>699</v>
       </c>
       <c r="J7">
-        <v>610</v>
+        <v>590</v>
       </c>
       <c r="K7">
-        <v>434</v>
+        <v>420</v>
       </c>
       <c r="L7">
-        <v>414</v>
+        <v>283</v>
       </c>
       <c r="M7">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="N7">
-        <v>615</v>
+        <v>411</v>
       </c>
       <c r="O7">
-        <v>272</v>
+        <v>184</v>
       </c>
       <c r="P7">
-        <v>121</v>
+        <v>83</v>
       </c>
       <c r="Q7">
-        <v>719</v>
+        <v>480</v>
       </c>
       <c r="R7">
-        <v>408</v>
+        <v>276</v>
       </c>
       <c r="S7">
-        <v>392</v>
+        <v>262</v>
       </c>
       <c r="T7">
-        <v>356</v>
+        <v>246</v>
       </c>
       <c r="U7">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="V7">
-        <v>309</v>
+        <v>209</v>
       </c>
       <c r="W7">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="X7">
-        <v>229</v>
+        <v>153</v>
       </c>
       <c r="Y7">
-        <v>320</v>
+        <v>217</v>
       </c>
       <c r="Z7">
-        <v>434</v>
+        <v>413</v>
       </c>
       <c r="AA7">
-        <v>755</v>
+        <v>724</v>
       </c>
       <c r="AB7">
-        <v>755</v>
+        <v>726</v>
       </c>
       <c r="AC7">
-        <v>434</v>
+        <v>421</v>
       </c>
       <c r="AD7">
-        <v>787</v>
+        <v>767</v>
       </c>
       <c r="AE7">
-        <v>787</v>
+        <v>750</v>
       </c>
       <c r="AF7">
-        <v>640</v>
+        <v>618</v>
       </c>
       <c r="AG7">
-        <v>393</v>
+        <v>375</v>
       </c>
       <c r="AH7">
-        <v>447</v>
+        <v>424</v>
       </c>
       <c r="AI7">
-        <v>312</v>
+        <v>292</v>
       </c>
       <c r="AJ7">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="AK7">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="AL7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AM7">
         <v>13</v>
@@ -1452,115 +1452,115 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>57</v>
+      </c>
+      <c r="D9">
+        <v>200</v>
+      </c>
+      <c r="E9">
+        <v>277</v>
+      </c>
+      <c r="F9">
+        <v>332</v>
+      </c>
+      <c r="G9">
+        <v>363</v>
+      </c>
+      <c r="H9">
+        <v>355</v>
+      </c>
+      <c r="I9">
+        <v>338</v>
+      </c>
+      <c r="J9">
+        <v>280</v>
+      </c>
+      <c r="K9">
+        <v>196</v>
+      </c>
+      <c r="L9">
+        <v>253</v>
+      </c>
+      <c r="M9">
+        <v>194</v>
+      </c>
+      <c r="N9">
+        <v>142</v>
+      </c>
+      <c r="O9">
+        <v>132</v>
+      </c>
+      <c r="P9">
+        <v>145</v>
+      </c>
+      <c r="Q9">
+        <v>144</v>
+      </c>
+      <c r="R9">
+        <v>155</v>
+      </c>
+      <c r="S9">
+        <v>124</v>
+      </c>
+      <c r="T9">
+        <v>116</v>
+      </c>
+      <c r="U9">
+        <v>107</v>
+      </c>
+      <c r="V9">
+        <v>113</v>
+      </c>
+      <c r="W9">
+        <v>84</v>
+      </c>
+      <c r="X9">
+        <v>123</v>
+      </c>
+      <c r="Y9">
+        <v>103</v>
+      </c>
+      <c r="Z9">
+        <v>195</v>
+      </c>
+      <c r="AA9">
+        <v>349</v>
+      </c>
+      <c r="AB9">
+        <v>344</v>
+      </c>
+      <c r="AC9">
+        <v>195</v>
+      </c>
+      <c r="AD9">
+        <v>195</v>
+      </c>
+      <c r="AE9">
+        <v>147</v>
+      </c>
+      <c r="AF9">
+        <v>117</v>
+      </c>
+      <c r="AG9">
+        <v>141</v>
+      </c>
+      <c r="AH9">
+        <v>110</v>
+      </c>
+      <c r="AI9">
+        <v>86</v>
+      </c>
+      <c r="AJ9">
+        <v>54</v>
+      </c>
+      <c r="AK9">
+        <v>31</v>
+      </c>
+      <c r="AL9">
         <v>15</v>
-      </c>
-      <c r="C9">
-        <v>59</v>
-      </c>
-      <c r="D9">
-        <v>205</v>
-      </c>
-      <c r="E9">
-        <v>289</v>
-      </c>
-      <c r="F9">
-        <v>345</v>
-      </c>
-      <c r="G9">
-        <v>373</v>
-      </c>
-      <c r="H9">
-        <v>373</v>
-      </c>
-      <c r="I9">
-        <v>345</v>
-      </c>
-      <c r="J9">
-        <v>289</v>
-      </c>
-      <c r="K9">
-        <v>205</v>
-      </c>
-      <c r="L9">
-        <v>373</v>
-      </c>
-      <c r="M9">
-        <v>288</v>
-      </c>
-      <c r="N9">
-        <v>213</v>
-      </c>
-      <c r="O9">
-        <v>195</v>
-      </c>
-      <c r="P9">
-        <v>209</v>
-      </c>
-      <c r="Q9">
-        <v>213</v>
-      </c>
-      <c r="R9">
-        <v>230</v>
-      </c>
-      <c r="S9">
-        <v>186</v>
-      </c>
-      <c r="T9">
-        <v>170</v>
-      </c>
-      <c r="U9">
-        <v>159</v>
-      </c>
-      <c r="V9">
-        <v>169</v>
-      </c>
-      <c r="W9">
-        <v>125</v>
-      </c>
-      <c r="X9">
-        <v>181</v>
-      </c>
-      <c r="Y9">
-        <v>151</v>
-      </c>
-      <c r="Z9">
-        <v>205</v>
-      </c>
-      <c r="AA9">
-        <v>357</v>
-      </c>
-      <c r="AB9">
-        <v>357</v>
-      </c>
-      <c r="AC9">
-        <v>205</v>
-      </c>
-      <c r="AD9">
-        <v>204</v>
-      </c>
-      <c r="AE9">
-        <v>151</v>
-      </c>
-      <c r="AF9">
-        <v>122</v>
-      </c>
-      <c r="AG9">
-        <v>147</v>
-      </c>
-      <c r="AH9">
-        <v>117</v>
-      </c>
-      <c r="AI9">
-        <v>90</v>
-      </c>
-      <c r="AJ9">
-        <v>56</v>
-      </c>
-      <c r="AK9">
-        <v>32</v>
-      </c>
-      <c r="AL9">
-        <v>16</v>
       </c>
       <c r="AM9">
         <v>2</v>
@@ -1574,109 +1574,109 @@
         <v>12</v>
       </c>
       <c r="C10">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D10">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E10">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="F10">
+        <v>231</v>
+      </c>
+      <c r="G10">
+        <v>248</v>
+      </c>
+      <c r="H10">
+        <v>250</v>
+      </c>
+      <c r="I10">
+        <v>233</v>
+      </c>
+      <c r="J10">
+        <v>192</v>
+      </c>
+      <c r="K10">
+        <v>136</v>
+      </c>
+      <c r="L10">
+        <v>178</v>
+      </c>
+      <c r="M10">
+        <v>150</v>
+      </c>
+      <c r="N10">
+        <v>116</v>
+      </c>
+      <c r="O10">
+        <v>93</v>
+      </c>
+      <c r="P10">
+        <v>121</v>
+      </c>
+      <c r="Q10">
+        <v>108</v>
+      </c>
+      <c r="R10">
+        <v>110</v>
+      </c>
+      <c r="S10">
+        <v>95</v>
+      </c>
+      <c r="T10">
+        <v>80</v>
+      </c>
+      <c r="U10">
+        <v>67</v>
+      </c>
+      <c r="V10">
+        <v>57</v>
+      </c>
+      <c r="W10">
+        <v>68</v>
+      </c>
+      <c r="X10">
+        <v>86</v>
+      </c>
+      <c r="Y10">
+        <v>82</v>
+      </c>
+      <c r="Z10">
+        <v>137</v>
+      </c>
+      <c r="AA10">
+        <v>242</v>
+      </c>
+      <c r="AB10">
         <v>241</v>
       </c>
-      <c r="G10">
-        <v>260</v>
-      </c>
-      <c r="H10">
-        <v>260</v>
-      </c>
-      <c r="I10">
-        <v>241</v>
-      </c>
-      <c r="J10">
-        <v>202</v>
-      </c>
-      <c r="K10">
-        <v>143</v>
-      </c>
-      <c r="L10">
-        <v>260</v>
-      </c>
-      <c r="M10">
-        <v>223</v>
-      </c>
-      <c r="N10">
-        <v>176</v>
-      </c>
-      <c r="O10">
-        <v>138</v>
-      </c>
-      <c r="P10">
-        <v>177</v>
-      </c>
-      <c r="Q10">
-        <v>159</v>
-      </c>
-      <c r="R10">
-        <v>159</v>
-      </c>
-      <c r="S10">
+      <c r="AC10">
         <v>139</v>
       </c>
-      <c r="T10">
-        <v>118</v>
-      </c>
-      <c r="U10">
-        <v>98</v>
-      </c>
-      <c r="V10">
-        <v>84</v>
-      </c>
-      <c r="W10">
-        <v>100</v>
-      </c>
-      <c r="X10">
-        <v>126</v>
-      </c>
-      <c r="Y10">
-        <v>121</v>
-      </c>
-      <c r="Z10">
-        <v>143</v>
-      </c>
-      <c r="AA10">
-        <v>250</v>
-      </c>
-      <c r="AB10">
-        <v>250</v>
-      </c>
-      <c r="AC10">
-        <v>143</v>
-      </c>
       <c r="AD10">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="AE10">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AF10">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="AG10">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AH10">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AI10">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AJ10">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AK10">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL10">
         <v>4</v>
@@ -1693,85 +1693,85 @@
         <v>6</v>
       </c>
       <c r="C11">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F11">
+        <v>42</v>
+      </c>
+      <c r="G11">
+        <v>46</v>
+      </c>
+      <c r="H11">
+        <v>46</v>
+      </c>
+      <c r="I11">
+        <v>43</v>
+      </c>
+      <c r="J11">
+        <v>36</v>
+      </c>
+      <c r="K11">
+        <v>25</v>
+      </c>
+      <c r="L11">
+        <v>32</v>
+      </c>
+      <c r="M11">
+        <v>32</v>
+      </c>
+      <c r="N11">
+        <v>23</v>
+      </c>
+      <c r="O11">
+        <v>21</v>
+      </c>
+      <c r="P11">
+        <v>25</v>
+      </c>
+      <c r="Q11">
+        <v>23</v>
+      </c>
+      <c r="R11">
+        <v>19</v>
+      </c>
+      <c r="S11">
+        <v>12</v>
+      </c>
+      <c r="T11">
+        <v>11</v>
+      </c>
+      <c r="U11">
+        <v>13</v>
+      </c>
+      <c r="V11">
+        <v>14</v>
+      </c>
+      <c r="W11">
+        <v>9</v>
+      </c>
+      <c r="X11">
+        <v>9</v>
+      </c>
+      <c r="Y11">
+        <v>12</v>
+      </c>
+      <c r="Z11">
+        <v>25</v>
+      </c>
+      <c r="AA11">
+        <v>45</v>
+      </c>
+      <c r="AB11">
         <v>44</v>
       </c>
-      <c r="G11">
-        <v>48</v>
-      </c>
-      <c r="H11">
-        <v>48</v>
-      </c>
-      <c r="I11">
-        <v>44</v>
-      </c>
-      <c r="J11">
-        <v>37</v>
-      </c>
-      <c r="K11">
-        <v>26</v>
-      </c>
-      <c r="L11">
-        <v>48</v>
-      </c>
-      <c r="M11">
-        <v>48</v>
-      </c>
-      <c r="N11">
-        <v>36</v>
-      </c>
-      <c r="O11">
-        <v>31</v>
-      </c>
-      <c r="P11">
-        <v>36</v>
-      </c>
-      <c r="Q11">
-        <v>32</v>
-      </c>
-      <c r="R11">
-        <v>29</v>
-      </c>
-      <c r="S11">
-        <v>17</v>
-      </c>
-      <c r="T11">
-        <v>17</v>
-      </c>
-      <c r="U11">
-        <v>20</v>
-      </c>
-      <c r="V11">
-        <v>21</v>
-      </c>
-      <c r="W11">
-        <v>15</v>
-      </c>
-      <c r="X11">
-        <v>15</v>
-      </c>
-      <c r="Y11">
-        <v>18</v>
-      </c>
-      <c r="Z11">
-        <v>26</v>
-      </c>
-      <c r="AA11">
-        <v>46</v>
-      </c>
-      <c r="AB11">
-        <v>46</v>
-      </c>
       <c r="AC11">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AD11">
         <v>9</v>
@@ -1815,103 +1815,103 @@
         <v>5</v>
       </c>
       <c r="D12">
+        <v>29</v>
+      </c>
+      <c r="E12">
+        <v>42</v>
+      </c>
+      <c r="F12">
+        <v>49</v>
+      </c>
+      <c r="G12">
+        <v>54</v>
+      </c>
+      <c r="H12">
+        <v>53</v>
+      </c>
+      <c r="I12">
+        <v>50</v>
+      </c>
+      <c r="J12">
+        <v>41</v>
+      </c>
+      <c r="K12">
+        <v>29</v>
+      </c>
+      <c r="L12">
+        <v>37</v>
+      </c>
+      <c r="M12">
+        <v>27</v>
+      </c>
+      <c r="N12">
+        <v>14</v>
+      </c>
+      <c r="O12">
+        <v>18</v>
+      </c>
+      <c r="P12">
+        <v>21</v>
+      </c>
+      <c r="Q12">
+        <v>16</v>
+      </c>
+      <c r="R12">
+        <v>19</v>
+      </c>
+      <c r="S12">
+        <v>15</v>
+      </c>
+      <c r="T12">
+        <v>12</v>
+      </c>
+      <c r="U12">
+        <v>16</v>
+      </c>
+      <c r="V12">
+        <v>15</v>
+      </c>
+      <c r="W12">
+        <v>12</v>
+      </c>
+      <c r="X12">
+        <v>16</v>
+      </c>
+      <c r="Y12">
+        <v>15</v>
+      </c>
+      <c r="Z12">
+        <v>29</v>
+      </c>
+      <c r="AA12">
+        <v>51</v>
+      </c>
+      <c r="AB12">
+        <v>51</v>
+      </c>
+      <c r="AC12">
+        <v>29</v>
+      </c>
+      <c r="AD12">
         <v>30</v>
       </c>
-      <c r="E12">
-        <v>43</v>
-      </c>
-      <c r="F12">
-        <v>51</v>
-      </c>
-      <c r="G12">
-        <v>55</v>
-      </c>
-      <c r="H12">
-        <v>55</v>
-      </c>
-      <c r="I12">
-        <v>51</v>
-      </c>
-      <c r="J12">
-        <v>43</v>
-      </c>
-      <c r="K12">
-        <v>30</v>
-      </c>
-      <c r="L12">
-        <v>55</v>
-      </c>
-      <c r="M12">
-        <v>39</v>
-      </c>
-      <c r="N12">
-        <v>21</v>
-      </c>
-      <c r="O12">
-        <v>26</v>
-      </c>
-      <c r="P12">
-        <v>31</v>
-      </c>
-      <c r="Q12">
-        <v>23</v>
-      </c>
-      <c r="R12">
-        <v>29</v>
-      </c>
-      <c r="S12">
-        <v>22</v>
-      </c>
-      <c r="T12">
-        <v>18</v>
-      </c>
-      <c r="U12">
-        <v>23</v>
-      </c>
-      <c r="V12">
-        <v>22</v>
-      </c>
-      <c r="W12">
-        <v>18</v>
-      </c>
-      <c r="X12">
+      <c r="AE12">
         <v>25</v>
-      </c>
-      <c r="Y12">
-        <v>23</v>
-      </c>
-      <c r="Z12">
-        <v>30</v>
-      </c>
-      <c r="AA12">
-        <v>53</v>
-      </c>
-      <c r="AB12">
-        <v>53</v>
-      </c>
-      <c r="AC12">
-        <v>30</v>
-      </c>
-      <c r="AD12">
-        <v>31</v>
-      </c>
-      <c r="AE12">
-        <v>27</v>
       </c>
       <c r="AF12">
         <v>22</v>
       </c>
       <c r="AG12">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AH12">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AI12">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AJ12">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AK12">
         <v>9</v>
@@ -1931,106 +1931,106 @@
         <v>5</v>
       </c>
       <c r="C13">
+        <v>26</v>
+      </c>
+      <c r="D13">
+        <v>61</v>
+      </c>
+      <c r="E13">
+        <v>87</v>
+      </c>
+      <c r="F13">
+        <v>104</v>
+      </c>
+      <c r="G13">
+        <v>111</v>
+      </c>
+      <c r="H13">
+        <v>112</v>
+      </c>
+      <c r="I13">
+        <v>105</v>
+      </c>
+      <c r="J13">
+        <v>86</v>
+      </c>
+      <c r="K13">
+        <v>61</v>
+      </c>
+      <c r="L13">
+        <v>77</v>
+      </c>
+      <c r="M13">
+        <v>48</v>
+      </c>
+      <c r="N13">
+        <v>35</v>
+      </c>
+      <c r="O13">
+        <v>28</v>
+      </c>
+      <c r="P13">
+        <v>37</v>
+      </c>
+      <c r="Q13">
+        <v>39</v>
+      </c>
+      <c r="R13">
+        <v>40</v>
+      </c>
+      <c r="S13">
+        <v>32</v>
+      </c>
+      <c r="T13">
+        <v>35</v>
+      </c>
+      <c r="U13">
+        <v>30</v>
+      </c>
+      <c r="V13">
         <v>27</v>
       </c>
-      <c r="D13">
-        <v>64</v>
-      </c>
-      <c r="E13">
-        <v>90</v>
-      </c>
-      <c r="F13">
+      <c r="W13">
+        <v>26</v>
+      </c>
+      <c r="X13">
+        <v>38</v>
+      </c>
+      <c r="Y13">
+        <v>47</v>
+      </c>
+      <c r="Z13">
+        <v>61</v>
+      </c>
+      <c r="AA13">
         <v>108</v>
       </c>
-      <c r="G13">
-        <v>116</v>
-      </c>
-      <c r="H13">
-        <v>116</v>
-      </c>
-      <c r="I13">
+      <c r="AB13">
         <v>108</v>
       </c>
-      <c r="J13">
-        <v>90</v>
-      </c>
-      <c r="K13">
-        <v>64</v>
-      </c>
-      <c r="L13">
-        <v>116</v>
-      </c>
-      <c r="M13">
+      <c r="AC13">
+        <v>61</v>
+      </c>
+      <c r="AD13">
+        <v>103</v>
+      </c>
+      <c r="AE13">
         <v>70</v>
       </c>
-      <c r="N13">
+      <c r="AF13">
+        <v>60</v>
+      </c>
+      <c r="AG13">
         <v>54</v>
       </c>
-      <c r="O13">
-        <v>42</v>
-      </c>
-      <c r="P13">
-        <v>53</v>
-      </c>
-      <c r="Q13">
-        <v>58</v>
-      </c>
-      <c r="R13">
-        <v>59</v>
-      </c>
-      <c r="S13">
-        <v>47</v>
-      </c>
-      <c r="T13">
-        <v>52</v>
-      </c>
-      <c r="U13">
-        <v>44</v>
-      </c>
-      <c r="V13">
-        <v>40</v>
-      </c>
-      <c r="W13">
-        <v>39</v>
-      </c>
-      <c r="X13">
-        <v>56</v>
-      </c>
-      <c r="Y13">
-        <v>71</v>
-      </c>
-      <c r="Z13">
-        <v>64</v>
-      </c>
-      <c r="AA13">
-        <v>112</v>
-      </c>
-      <c r="AB13">
-        <v>112</v>
-      </c>
-      <c r="AC13">
-        <v>64</v>
-      </c>
-      <c r="AD13">
-        <v>106</v>
-      </c>
-      <c r="AE13">
-        <v>72</v>
-      </c>
-      <c r="AF13">
-        <v>63</v>
-      </c>
-      <c r="AG13">
-        <v>56</v>
-      </c>
       <c r="AH13">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="AI13">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="AJ13">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AK13">
         <v>9</v>
@@ -2053,103 +2053,103 @@
         <v>5</v>
       </c>
       <c r="D14">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E14">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F14">
+        <v>98</v>
+      </c>
+      <c r="G14">
+        <v>104</v>
+      </c>
+      <c r="H14">
+        <v>105</v>
+      </c>
+      <c r="I14">
+        <v>99</v>
+      </c>
+      <c r="J14">
+        <v>80</v>
+      </c>
+      <c r="K14">
+        <v>59</v>
+      </c>
+      <c r="L14">
+        <v>29</v>
+      </c>
+      <c r="M14">
+        <v>21</v>
+      </c>
+      <c r="N14">
+        <v>14</v>
+      </c>
+      <c r="O14">
+        <v>9</v>
+      </c>
+      <c r="P14">
+        <v>11</v>
+      </c>
+      <c r="Q14">
+        <v>12</v>
+      </c>
+      <c r="R14">
+        <v>10</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>11</v>
+      </c>
+      <c r="U14">
+        <v>10</v>
+      </c>
+      <c r="V14">
+        <v>12</v>
+      </c>
+      <c r="W14">
+        <v>15</v>
+      </c>
+      <c r="X14">
+        <v>22</v>
+      </c>
+      <c r="Y14">
+        <v>24</v>
+      </c>
+      <c r="Z14">
+        <v>58</v>
+      </c>
+      <c r="AA14">
+        <v>102</v>
+      </c>
+      <c r="AB14">
         <v>101</v>
       </c>
-      <c r="G14">
-        <v>109</v>
-      </c>
-      <c r="H14">
-        <v>109</v>
-      </c>
-      <c r="I14">
-        <v>101</v>
-      </c>
-      <c r="J14">
-        <v>84</v>
-      </c>
-      <c r="K14">
-        <v>60</v>
-      </c>
-      <c r="L14">
-        <v>42</v>
-      </c>
-      <c r="M14">
-        <v>31</v>
-      </c>
-      <c r="N14">
-        <v>21</v>
-      </c>
-      <c r="O14">
-        <v>14</v>
-      </c>
-      <c r="P14">
-        <v>17</v>
-      </c>
-      <c r="Q14">
-        <v>18</v>
-      </c>
-      <c r="R14">
-        <v>15</v>
-      </c>
-      <c r="S14">
-        <v>14</v>
-      </c>
-      <c r="T14">
-        <v>15</v>
-      </c>
-      <c r="U14">
-        <v>14</v>
-      </c>
-      <c r="V14">
-        <v>18</v>
-      </c>
-      <c r="W14">
-        <v>22</v>
-      </c>
-      <c r="X14">
-        <v>33</v>
-      </c>
-      <c r="Y14">
-        <v>36</v>
-      </c>
-      <c r="Z14">
-        <v>60</v>
-      </c>
-      <c r="AA14">
+      <c r="AC14">
+        <v>57</v>
+      </c>
+      <c r="AD14">
+        <v>106</v>
+      </c>
+      <c r="AE14">
+        <v>106</v>
+      </c>
+      <c r="AF14">
+        <v>105</v>
+      </c>
+      <c r="AG14">
+        <v>105</v>
+      </c>
+      <c r="AH14">
         <v>104</v>
       </c>
-      <c r="AB14">
-        <v>104</v>
-      </c>
-      <c r="AC14">
-        <v>60</v>
-      </c>
-      <c r="AD14">
-        <v>109</v>
-      </c>
-      <c r="AE14">
-        <v>109</v>
-      </c>
-      <c r="AF14">
-        <v>109</v>
-      </c>
-      <c r="AG14">
-        <v>109</v>
-      </c>
-      <c r="AH14">
-        <v>109</v>
-      </c>
       <c r="AI14">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="AJ14">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="AK14">
         <v>6</v>
@@ -2172,103 +2172,103 @@
         <v>6</v>
       </c>
       <c r="D15">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F15">
+        <v>57</v>
+      </c>
+      <c r="G15">
+        <v>60</v>
+      </c>
+      <c r="H15">
+        <v>60</v>
+      </c>
+      <c r="I15">
+        <v>58</v>
+      </c>
+      <c r="J15">
+        <v>47</v>
+      </c>
+      <c r="K15">
+        <v>34</v>
+      </c>
+      <c r="L15">
+        <v>32</v>
+      </c>
+      <c r="M15">
+        <v>19</v>
+      </c>
+      <c r="N15">
+        <v>17</v>
+      </c>
+      <c r="O15">
+        <v>17</v>
+      </c>
+      <c r="P15">
+        <v>20</v>
+      </c>
+      <c r="Q15">
+        <v>17</v>
+      </c>
+      <c r="R15">
+        <v>20</v>
+      </c>
+      <c r="S15">
+        <v>16</v>
+      </c>
+      <c r="T15">
+        <v>17</v>
+      </c>
+      <c r="U15">
+        <v>18</v>
+      </c>
+      <c r="V15">
+        <v>17</v>
+      </c>
+      <c r="W15">
+        <v>22</v>
+      </c>
+      <c r="X15">
+        <v>28</v>
+      </c>
+      <c r="Y15">
+        <v>37</v>
+      </c>
+      <c r="Z15">
+        <v>34</v>
+      </c>
+      <c r="AA15">
         <v>59</v>
       </c>
-      <c r="G15">
-        <v>63</v>
-      </c>
-      <c r="H15">
-        <v>63</v>
-      </c>
-      <c r="I15">
-        <v>59</v>
-      </c>
-      <c r="J15">
-        <v>49</v>
-      </c>
-      <c r="K15">
-        <v>35</v>
-      </c>
-      <c r="L15">
-        <v>47</v>
-      </c>
-      <c r="M15">
-        <v>29</v>
-      </c>
-      <c r="N15">
-        <v>26</v>
-      </c>
-      <c r="O15">
-        <v>25</v>
-      </c>
-      <c r="P15">
-        <v>30</v>
-      </c>
-      <c r="Q15">
-        <v>25</v>
-      </c>
-      <c r="R15">
-        <v>29</v>
-      </c>
-      <c r="S15">
-        <v>23</v>
-      </c>
-      <c r="T15">
+      <c r="AB15">
+        <v>58</v>
+      </c>
+      <c r="AC15">
+        <v>33</v>
+      </c>
+      <c r="AD15">
+        <v>60</v>
+      </c>
+      <c r="AE15">
+        <v>45</v>
+      </c>
+      <c r="AF15">
+        <v>31</v>
+      </c>
+      <c r="AG15">
         <v>24</v>
       </c>
-      <c r="U15">
-        <v>25</v>
-      </c>
-      <c r="V15">
-        <v>25</v>
-      </c>
-      <c r="W15">
+      <c r="AH15">
         <v>33</v>
       </c>
-      <c r="X15">
-        <v>42</v>
-      </c>
-      <c r="Y15">
-        <v>54</v>
-      </c>
-      <c r="Z15">
-        <v>35</v>
-      </c>
-      <c r="AA15">
-        <v>61</v>
-      </c>
-      <c r="AB15">
-        <v>61</v>
-      </c>
-      <c r="AC15">
-        <v>35</v>
-      </c>
-      <c r="AD15">
-        <v>63</v>
-      </c>
-      <c r="AE15">
-        <v>47</v>
-      </c>
-      <c r="AF15">
-        <v>32</v>
-      </c>
-      <c r="AG15">
-        <v>25</v>
-      </c>
-      <c r="AH15">
-        <v>35</v>
-      </c>
       <c r="AI15">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ15">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK15">
         <v>5</v>
@@ -2291,88 +2291,88 @@
         <v>7</v>
       </c>
       <c r="D16">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E16">
+        <v>40</v>
+      </c>
+      <c r="F16">
+        <v>48</v>
+      </c>
+      <c r="G16">
+        <v>51</v>
+      </c>
+      <c r="H16">
+        <v>51</v>
+      </c>
+      <c r="I16">
+        <v>47</v>
+      </c>
+      <c r="J16">
+        <v>39</v>
+      </c>
+      <c r="K16">
+        <v>28</v>
+      </c>
+      <c r="L16">
+        <v>26</v>
+      </c>
+      <c r="M16">
+        <v>21</v>
+      </c>
+      <c r="N16">
+        <v>19</v>
+      </c>
+      <c r="O16">
+        <v>19</v>
+      </c>
+      <c r="P16">
+        <v>18</v>
+      </c>
+      <c r="Q16">
+        <v>15</v>
+      </c>
+      <c r="R16">
+        <v>20</v>
+      </c>
+      <c r="S16">
+        <v>17</v>
+      </c>
+      <c r="T16">
+        <v>17</v>
+      </c>
+      <c r="U16">
+        <v>18</v>
+      </c>
+      <c r="V16">
+        <v>17</v>
+      </c>
+      <c r="W16">
+        <v>16</v>
+      </c>
+      <c r="X16">
+        <v>24</v>
+      </c>
+      <c r="Y16">
+        <v>27</v>
+      </c>
+      <c r="Z16">
+        <v>28</v>
+      </c>
+      <c r="AA16">
+        <v>50</v>
+      </c>
+      <c r="AB16">
+        <v>50</v>
+      </c>
+      <c r="AC16">
+        <v>28</v>
+      </c>
+      <c r="AD16">
         <v>41</v>
       </c>
-      <c r="F16">
-        <v>49</v>
-      </c>
-      <c r="G16">
-        <v>53</v>
-      </c>
-      <c r="H16">
-        <v>53</v>
-      </c>
-      <c r="I16">
-        <v>49</v>
-      </c>
-      <c r="J16">
-        <v>41</v>
-      </c>
-      <c r="K16">
-        <v>29</v>
-      </c>
-      <c r="L16">
-        <v>38</v>
-      </c>
-      <c r="M16">
-        <v>31</v>
-      </c>
-      <c r="N16">
-        <v>29</v>
-      </c>
-      <c r="O16">
-        <v>27</v>
-      </c>
-      <c r="P16">
-        <v>27</v>
-      </c>
-      <c r="Q16">
-        <v>23</v>
-      </c>
-      <c r="R16">
-        <v>30</v>
-      </c>
-      <c r="S16">
-        <v>25</v>
-      </c>
-      <c r="T16">
-        <v>26</v>
-      </c>
-      <c r="U16">
-        <v>25</v>
-      </c>
-      <c r="V16">
-        <v>26</v>
-      </c>
-      <c r="W16">
-        <v>23</v>
-      </c>
-      <c r="X16">
-        <v>36</v>
-      </c>
-      <c r="Y16">
-        <v>39</v>
-      </c>
-      <c r="Z16">
-        <v>29</v>
-      </c>
-      <c r="AA16">
-        <v>51</v>
-      </c>
-      <c r="AB16">
-        <v>51</v>
-      </c>
-      <c r="AC16">
-        <v>29</v>
-      </c>
-      <c r="AD16">
-        <v>44</v>
-      </c>
       <c r="AE16">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="AF16">
         <v>24</v>
@@ -2410,97 +2410,97 @@
         <v>3</v>
       </c>
       <c r="D17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F17">
+        <v>27</v>
+      </c>
+      <c r="G17">
+        <v>29</v>
+      </c>
+      <c r="H17">
+        <v>29</v>
+      </c>
+      <c r="I17">
+        <v>27</v>
+      </c>
+      <c r="J17">
+        <v>23</v>
+      </c>
+      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <v>9</v>
+      </c>
+      <c r="M17">
+        <v>7</v>
+      </c>
+      <c r="N17">
+        <v>5</v>
+      </c>
+      <c r="O17">
+        <v>6</v>
+      </c>
+      <c r="P17">
+        <v>8</v>
+      </c>
+      <c r="Q17">
+        <v>8</v>
+      </c>
+      <c r="R17">
+        <v>6</v>
+      </c>
+      <c r="S17">
+        <v>8</v>
+      </c>
+      <c r="T17">
+        <v>8</v>
+      </c>
+      <c r="U17">
+        <v>9</v>
+      </c>
+      <c r="V17">
+        <v>9</v>
+      </c>
+      <c r="W17">
+        <v>12</v>
+      </c>
+      <c r="X17">
+        <v>13</v>
+      </c>
+      <c r="Y17">
+        <v>16</v>
+      </c>
+      <c r="Z17">
+        <v>16</v>
+      </c>
+      <c r="AA17">
         <v>28</v>
       </c>
-      <c r="G17">
-        <v>30</v>
-      </c>
-      <c r="H17">
-        <v>30</v>
-      </c>
-      <c r="I17">
+      <c r="AB17">
         <v>28</v>
-      </c>
-      <c r="J17">
-        <v>24</v>
-      </c>
-      <c r="K17">
-        <v>17</v>
-      </c>
-      <c r="L17">
-        <v>13</v>
-      </c>
-      <c r="M17">
-        <v>11</v>
-      </c>
-      <c r="N17">
-        <v>8</v>
-      </c>
-      <c r="O17">
-        <v>9</v>
-      </c>
-      <c r="P17">
-        <v>12</v>
-      </c>
-      <c r="Q17">
-        <v>12</v>
-      </c>
-      <c r="R17">
-        <v>9</v>
-      </c>
-      <c r="S17">
-        <v>12</v>
-      </c>
-      <c r="T17">
-        <v>11</v>
-      </c>
-      <c r="U17">
-        <v>13</v>
-      </c>
-      <c r="V17">
-        <v>14</v>
-      </c>
-      <c r="W17">
-        <v>18</v>
-      </c>
-      <c r="X17">
-        <v>19</v>
-      </c>
-      <c r="Y17">
-        <v>24</v>
-      </c>
-      <c r="Z17">
-        <v>17</v>
-      </c>
-      <c r="AA17">
-        <v>29</v>
-      </c>
-      <c r="AB17">
-        <v>29</v>
       </c>
       <c r="AC17">
         <v>17</v>
       </c>
       <c r="AD17">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AE17">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AF17">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG17">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AH17">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI17">
         <v>8</v>
@@ -2899,97 +2899,97 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F3">
+        <v>62</v>
+      </c>
+      <c r="G3">
+        <v>66</v>
+      </c>
+      <c r="H3">
+        <v>66</v>
+      </c>
+      <c r="I3">
+        <v>61</v>
+      </c>
+      <c r="J3">
+        <v>52</v>
+      </c>
+      <c r="K3">
+        <v>36</v>
+      </c>
+      <c r="L3">
+        <v>14</v>
+      </c>
+      <c r="M3">
+        <v>11</v>
+      </c>
+      <c r="N3">
+        <v>12</v>
+      </c>
+      <c r="O3">
+        <v>12</v>
+      </c>
+      <c r="P3">
+        <v>10</v>
+      </c>
+      <c r="Q3">
+        <v>14</v>
+      </c>
+      <c r="R3">
+        <v>13</v>
+      </c>
+      <c r="S3">
+        <v>14</v>
+      </c>
+      <c r="T3">
+        <v>14</v>
+      </c>
+      <c r="U3">
+        <v>15</v>
+      </c>
+      <c r="V3">
+        <v>18</v>
+      </c>
+      <c r="W3">
+        <v>23</v>
+      </c>
+      <c r="X3">
+        <v>31</v>
+      </c>
+      <c r="Y3">
+        <v>34</v>
+      </c>
+      <c r="Z3">
+        <v>37</v>
+      </c>
+      <c r="AA3">
         <v>64</v>
       </c>
-      <c r="G3">
-        <v>69</v>
-      </c>
-      <c r="H3">
-        <v>69</v>
-      </c>
-      <c r="I3">
+      <c r="AB3">
         <v>64</v>
       </c>
-      <c r="J3">
-        <v>54</v>
-      </c>
-      <c r="K3">
-        <v>38</v>
-      </c>
-      <c r="L3">
-        <v>21</v>
-      </c>
-      <c r="M3">
-        <v>16</v>
-      </c>
-      <c r="N3">
-        <v>18</v>
-      </c>
-      <c r="O3">
-        <v>17</v>
-      </c>
-      <c r="P3">
-        <v>15</v>
-      </c>
-      <c r="Q3">
-        <v>20</v>
-      </c>
-      <c r="R3">
-        <v>20</v>
-      </c>
-      <c r="S3">
-        <v>21</v>
-      </c>
-      <c r="T3">
-        <v>21</v>
-      </c>
-      <c r="U3">
-        <v>23</v>
-      </c>
-      <c r="V3">
-        <v>26</v>
-      </c>
-      <c r="W3">
-        <v>33</v>
-      </c>
-      <c r="X3">
-        <v>46</v>
-      </c>
-      <c r="Y3">
-        <v>51</v>
-      </c>
-      <c r="Z3">
-        <v>38</v>
-      </c>
-      <c r="AA3">
-        <v>67</v>
-      </c>
-      <c r="AB3">
-        <v>67</v>
-      </c>
       <c r="AC3">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="AD3">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AE3">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="AF3">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG3">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AH3">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="AI3">
         <v>34</v>
@@ -3018,106 +3018,106 @@
         <v>4</v>
       </c>
       <c r="D4">
+        <v>78</v>
+      </c>
+      <c r="E4">
+        <v>111</v>
+      </c>
+      <c r="F4">
+        <v>132</v>
+      </c>
+      <c r="G4">
+        <v>141</v>
+      </c>
+      <c r="H4">
+        <v>142</v>
+      </c>
+      <c r="I4">
+        <v>131</v>
+      </c>
+      <c r="J4">
+        <v>111</v>
+      </c>
+      <c r="K4">
+        <v>78</v>
+      </c>
+      <c r="L4">
+        <v>25</v>
+      </c>
+      <c r="M4">
+        <v>16</v>
+      </c>
+      <c r="N4">
+        <v>15</v>
+      </c>
+      <c r="O4">
+        <v>24</v>
+      </c>
+      <c r="P4">
+        <v>22</v>
+      </c>
+      <c r="Q4">
+        <v>19</v>
+      </c>
+      <c r="R4">
+        <v>22</v>
+      </c>
+      <c r="S4">
+        <v>19</v>
+      </c>
+      <c r="T4">
+        <v>18</v>
+      </c>
+      <c r="U4">
+        <v>22</v>
+      </c>
+      <c r="V4">
+        <v>27</v>
+      </c>
+      <c r="W4">
+        <v>29</v>
+      </c>
+      <c r="X4">
+        <v>31</v>
+      </c>
+      <c r="Y4">
+        <v>53</v>
+      </c>
+      <c r="Z4">
+        <v>78</v>
+      </c>
+      <c r="AA4">
+        <v>135</v>
+      </c>
+      <c r="AB4">
+        <v>137</v>
+      </c>
+      <c r="AC4">
+        <v>77</v>
+      </c>
+      <c r="AD4">
+        <v>143</v>
+      </c>
+      <c r="AE4">
+        <v>143</v>
+      </c>
+      <c r="AF4">
+        <v>141</v>
+      </c>
+      <c r="AG4">
+        <v>135</v>
+      </c>
+      <c r="AH4">
+        <v>126</v>
+      </c>
+      <c r="AI4">
         <v>81</v>
       </c>
-      <c r="E4">
-        <v>114</v>
-      </c>
-      <c r="F4">
-        <v>136</v>
-      </c>
-      <c r="G4">
-        <v>147</v>
-      </c>
-      <c r="H4">
-        <v>147</v>
-      </c>
-      <c r="I4">
-        <v>136</v>
-      </c>
-      <c r="J4">
-        <v>114</v>
-      </c>
-      <c r="K4">
-        <v>81</v>
-      </c>
-      <c r="L4">
-        <v>37</v>
-      </c>
-      <c r="M4">
-        <v>24</v>
-      </c>
-      <c r="N4">
-        <v>23</v>
-      </c>
-      <c r="O4">
-        <v>35</v>
-      </c>
-      <c r="P4">
-        <v>33</v>
-      </c>
-      <c r="Q4">
-        <v>29</v>
-      </c>
-      <c r="R4">
-        <v>32</v>
-      </c>
-      <c r="S4">
+      <c r="AJ4">
+        <v>67</v>
+      </c>
+      <c r="AK4">
         <v>28</v>
-      </c>
-      <c r="T4">
-        <v>26</v>
-      </c>
-      <c r="U4">
-        <v>32</v>
-      </c>
-      <c r="V4">
-        <v>41</v>
-      </c>
-      <c r="W4">
-        <v>42</v>
-      </c>
-      <c r="X4">
-        <v>48</v>
-      </c>
-      <c r="Y4">
-        <v>78</v>
-      </c>
-      <c r="Z4">
-        <v>81</v>
-      </c>
-      <c r="AA4">
-        <v>141</v>
-      </c>
-      <c r="AB4">
-        <v>141</v>
-      </c>
-      <c r="AC4">
-        <v>81</v>
-      </c>
-      <c r="AD4">
-        <v>147</v>
-      </c>
-      <c r="AE4">
-        <v>147</v>
-      </c>
-      <c r="AF4">
-        <v>147</v>
-      </c>
-      <c r="AG4">
-        <v>140</v>
-      </c>
-      <c r="AH4">
-        <v>134</v>
-      </c>
-      <c r="AI4">
-        <v>83</v>
-      </c>
-      <c r="AJ4">
-        <v>68</v>
-      </c>
-      <c r="AK4">
-        <v>29</v>
       </c>
       <c r="AL4">
         <v>5</v>
@@ -3134,109 +3134,109 @@
         <v>11</v>
       </c>
       <c r="C5">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="E5">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="F5">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="G5">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="H5">
-        <v>449</v>
+        <v>428</v>
       </c>
       <c r="I5">
-        <v>416</v>
+        <v>397</v>
       </c>
       <c r="J5">
-        <v>348</v>
+        <v>331</v>
       </c>
       <c r="K5">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="L5">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="M5">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="N5">
+        <v>53</v>
+      </c>
+      <c r="O5">
+        <v>57</v>
+      </c>
+      <c r="P5">
+        <v>69</v>
+      </c>
+      <c r="Q5">
+        <v>83</v>
+      </c>
+      <c r="R5">
+        <v>86</v>
+      </c>
+      <c r="S5">
+        <v>79</v>
+      </c>
+      <c r="T5">
+        <v>84</v>
+      </c>
+      <c r="U5">
+        <v>90</v>
+      </c>
+      <c r="V5">
         <v>80</v>
       </c>
-      <c r="O5">
-        <v>83</v>
-      </c>
-      <c r="P5">
-        <v>104</v>
-      </c>
-      <c r="Q5">
+      <c r="W5">
+        <v>105</v>
+      </c>
+      <c r="X5">
         <v>123</v>
       </c>
-      <c r="R5">
-        <v>124</v>
-      </c>
-      <c r="S5">
-        <v>116</v>
-      </c>
-      <c r="T5">
-        <v>124</v>
-      </c>
-      <c r="U5">
-        <v>130</v>
-      </c>
-      <c r="V5">
-        <v>118</v>
-      </c>
-      <c r="W5">
-        <v>153</v>
-      </c>
-      <c r="X5">
-        <v>181</v>
-      </c>
       <c r="Y5">
-        <v>215</v>
+        <v>145</v>
       </c>
       <c r="Z5">
-        <v>247</v>
+        <v>235</v>
       </c>
       <c r="AA5">
-        <v>431</v>
+        <v>418</v>
       </c>
       <c r="AB5">
-        <v>431</v>
+        <v>419</v>
       </c>
       <c r="AC5">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="AD5">
-        <v>449</v>
+        <v>430</v>
       </c>
       <c r="AE5">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="AF5">
-        <v>449</v>
+        <v>439</v>
       </c>
       <c r="AG5">
-        <v>425</v>
+        <v>411</v>
       </c>
       <c r="AH5">
-        <v>414</v>
+        <v>390</v>
       </c>
       <c r="AI5">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="AJ5">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="AK5">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AL5">
         <v>23</v>
@@ -3253,106 +3253,106 @@
         <v>9</v>
       </c>
       <c r="C6">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D6">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E6">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="F6">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="G6">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="H6">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="I6">
-        <v>244</v>
+        <v>232</v>
       </c>
       <c r="J6">
-        <v>204</v>
+        <v>194</v>
       </c>
       <c r="K6">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="L6">
-        <v>115</v>
+        <v>77</v>
       </c>
       <c r="M6">
-        <v>116</v>
+        <v>78</v>
       </c>
       <c r="N6">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="O6">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="P6">
-        <v>113</v>
+        <v>75</v>
       </c>
       <c r="Q6">
-        <v>114</v>
+        <v>77</v>
       </c>
       <c r="R6">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="S6">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="T6">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="U6">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="V6">
-        <v>95</v>
+        <v>64</v>
       </c>
       <c r="W6">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="X6">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="Y6">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="Z6">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AA6">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="AB6">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="AC6">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="AD6">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AE6">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="AF6">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="AG6">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="AH6">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="AI6">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AJ6">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="AK6">
         <v>27</v>
@@ -3375,106 +3375,106 @@
         <v>7</v>
       </c>
       <c r="D7">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E7">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="F7">
+        <v>384</v>
+      </c>
+      <c r="G7">
+        <v>410</v>
+      </c>
+      <c r="H7">
+        <v>420</v>
+      </c>
+      <c r="I7">
+        <v>382</v>
+      </c>
+      <c r="J7">
+        <v>321</v>
+      </c>
+      <c r="K7">
+        <v>228</v>
+      </c>
+      <c r="L7">
+        <v>152</v>
+      </c>
+      <c r="M7">
+        <v>38</v>
+      </c>
+      <c r="N7">
+        <v>226</v>
+      </c>
+      <c r="O7">
+        <v>102</v>
+      </c>
+      <c r="P7">
+        <v>45</v>
+      </c>
+      <c r="Q7">
+        <v>264</v>
+      </c>
+      <c r="R7">
+        <v>154</v>
+      </c>
+      <c r="S7">
+        <v>143</v>
+      </c>
+      <c r="T7">
+        <v>129</v>
+      </c>
+      <c r="U7">
+        <v>34</v>
+      </c>
+      <c r="V7">
+        <v>112</v>
+      </c>
+      <c r="W7">
+        <v>31</v>
+      </c>
+      <c r="X7">
+        <v>85</v>
+      </c>
+      <c r="Y7">
+        <v>118</v>
+      </c>
+      <c r="Z7">
+        <v>230</v>
+      </c>
+      <c r="AA7">
         <v>397</v>
       </c>
-      <c r="G7">
-        <v>429</v>
-      </c>
-      <c r="H7">
-        <v>429</v>
-      </c>
-      <c r="I7">
-        <v>397</v>
-      </c>
-      <c r="J7">
-        <v>333</v>
-      </c>
-      <c r="K7">
-        <v>236</v>
-      </c>
-      <c r="L7">
-        <v>226</v>
-      </c>
-      <c r="M7">
-        <v>56</v>
-      </c>
-      <c r="N7">
-        <v>337</v>
-      </c>
-      <c r="O7">
-        <v>149</v>
-      </c>
-      <c r="P7">
-        <v>66</v>
-      </c>
-      <c r="Q7">
-        <v>392</v>
-      </c>
-      <c r="R7">
+      <c r="AB7">
+        <v>402</v>
+      </c>
+      <c r="AC7">
         <v>224</v>
       </c>
-      <c r="S7">
+      <c r="AD7">
+        <v>416</v>
+      </c>
+      <c r="AE7">
+        <v>408</v>
+      </c>
+      <c r="AF7">
+        <v>340</v>
+      </c>
+      <c r="AG7">
         <v>212</v>
       </c>
-      <c r="T7">
-        <v>195</v>
-      </c>
-      <c r="U7">
-        <v>51</v>
-      </c>
-      <c r="V7">
-        <v>166</v>
-      </c>
-      <c r="W7">
-        <v>45</v>
-      </c>
-      <c r="X7">
-        <v>126</v>
-      </c>
-      <c r="Y7">
-        <v>177</v>
-      </c>
-      <c r="Z7">
-        <v>236</v>
-      </c>
-      <c r="AA7">
-        <v>411</v>
-      </c>
-      <c r="AB7">
-        <v>411</v>
-      </c>
-      <c r="AC7">
-        <v>236</v>
-      </c>
-      <c r="AD7">
-        <v>429</v>
-      </c>
-      <c r="AE7">
-        <v>429</v>
-      </c>
-      <c r="AF7">
-        <v>347</v>
-      </c>
-      <c r="AG7">
-        <v>214</v>
-      </c>
       <c r="AH7">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="AI7">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="AJ7">
         <v>59</v>
       </c>
       <c r="AK7">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="AL7">
         <v>7</v>
@@ -3607,115 +3607,115 @@
         <v>7</v>
       </c>
       <c r="B9">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9">
+        <v>177</v>
+      </c>
+      <c r="E9">
+        <v>247</v>
+      </c>
+      <c r="F9">
+        <v>293</v>
+      </c>
+      <c r="G9">
+        <v>323</v>
+      </c>
+      <c r="H9">
+        <v>319</v>
+      </c>
+      <c r="I9">
+        <v>297</v>
+      </c>
+      <c r="J9">
+        <v>247</v>
+      </c>
+      <c r="K9">
+        <v>176</v>
+      </c>
+      <c r="L9">
+        <v>221</v>
+      </c>
+      <c r="M9">
+        <v>172</v>
+      </c>
+      <c r="N9">
+        <v>128</v>
+      </c>
+      <c r="O9">
+        <v>118</v>
+      </c>
+      <c r="P9">
+        <v>125</v>
+      </c>
+      <c r="Q9">
+        <v>128</v>
+      </c>
+      <c r="R9">
+        <v>138</v>
+      </c>
+      <c r="S9">
+        <v>112</v>
+      </c>
+      <c r="T9">
+        <v>104</v>
+      </c>
+      <c r="U9">
+        <v>98</v>
+      </c>
+      <c r="V9">
+        <v>101</v>
+      </c>
+      <c r="W9">
+        <v>74</v>
+      </c>
+      <c r="X9">
+        <v>107</v>
+      </c>
+      <c r="Y9">
+        <v>90</v>
+      </c>
+      <c r="Z9">
+        <v>176</v>
+      </c>
+      <c r="AA9">
+        <v>306</v>
+      </c>
+      <c r="AB9">
+        <v>309</v>
+      </c>
+      <c r="AC9">
+        <v>176</v>
+      </c>
+      <c r="AD9">
+        <v>171</v>
+      </c>
+      <c r="AE9">
+        <v>128</v>
+      </c>
+      <c r="AF9">
+        <v>106</v>
+      </c>
+      <c r="AG9">
+        <v>129</v>
+      </c>
+      <c r="AH9">
+        <v>98</v>
+      </c>
+      <c r="AI9">
+        <v>76</v>
+      </c>
+      <c r="AJ9">
+        <v>50</v>
+      </c>
+      <c r="AK9">
+        <v>27</v>
+      </c>
+      <c r="AL9">
         <v>13</v>
-      </c>
-      <c r="C9">
-        <v>52</v>
-      </c>
-      <c r="D9">
-        <v>182</v>
-      </c>
-      <c r="E9">
-        <v>257</v>
-      </c>
-      <c r="F9">
-        <v>306</v>
-      </c>
-      <c r="G9">
-        <v>331</v>
-      </c>
-      <c r="H9">
-        <v>331</v>
-      </c>
-      <c r="I9">
-        <v>306</v>
-      </c>
-      <c r="J9">
-        <v>257</v>
-      </c>
-      <c r="K9">
-        <v>182</v>
-      </c>
-      <c r="L9">
-        <v>331</v>
-      </c>
-      <c r="M9">
-        <v>256</v>
-      </c>
-      <c r="N9">
-        <v>190</v>
-      </c>
-      <c r="O9">
-        <v>175</v>
-      </c>
-      <c r="P9">
-        <v>186</v>
-      </c>
-      <c r="Q9">
-        <v>189</v>
-      </c>
-      <c r="R9">
-        <v>205</v>
-      </c>
-      <c r="S9">
-        <v>164</v>
-      </c>
-      <c r="T9">
-        <v>152</v>
-      </c>
-      <c r="U9">
-        <v>141</v>
-      </c>
-      <c r="V9">
-        <v>148</v>
-      </c>
-      <c r="W9">
-        <v>108</v>
-      </c>
-      <c r="X9">
-        <v>162</v>
-      </c>
-      <c r="Y9">
-        <v>136</v>
-      </c>
-      <c r="Z9">
-        <v>182</v>
-      </c>
-      <c r="AA9">
-        <v>317</v>
-      </c>
-      <c r="AB9">
-        <v>317</v>
-      </c>
-      <c r="AC9">
-        <v>182</v>
-      </c>
-      <c r="AD9">
-        <v>183</v>
-      </c>
-      <c r="AE9">
-        <v>132</v>
-      </c>
-      <c r="AF9">
-        <v>108</v>
-      </c>
-      <c r="AG9">
-        <v>131</v>
-      </c>
-      <c r="AH9">
-        <v>104</v>
-      </c>
-      <c r="AI9">
-        <v>78</v>
-      </c>
-      <c r="AJ9">
-        <v>51</v>
-      </c>
-      <c r="AK9">
-        <v>28</v>
-      </c>
-      <c r="AL9">
-        <v>14</v>
       </c>
       <c r="AM9">
         <v>2</v>
@@ -3729,106 +3729,106 @@
         <v>14</v>
       </c>
       <c r="C10">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D10">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="E10">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F10">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="G10">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="H10">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="I10">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="J10">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="K10">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="L10">
-        <v>293</v>
+        <v>198</v>
       </c>
       <c r="M10">
-        <v>250</v>
+        <v>169</v>
       </c>
       <c r="N10">
-        <v>198</v>
+        <v>132</v>
       </c>
       <c r="O10">
-        <v>156</v>
+        <v>106</v>
       </c>
       <c r="P10">
-        <v>201</v>
+        <v>133</v>
       </c>
       <c r="Q10">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="R10">
-        <v>180</v>
+        <v>123</v>
       </c>
       <c r="S10">
-        <v>156</v>
+        <v>108</v>
       </c>
       <c r="T10">
-        <v>133</v>
+        <v>90</v>
       </c>
       <c r="U10">
-        <v>111</v>
+        <v>76</v>
       </c>
       <c r="V10">
+        <v>62</v>
+      </c>
+      <c r="W10">
+        <v>76</v>
+      </c>
+      <c r="X10">
+        <v>94</v>
+      </c>
+      <c r="Y10">
         <v>93</v>
       </c>
-      <c r="W10">
-        <v>110</v>
-      </c>
-      <c r="X10">
-        <v>142</v>
-      </c>
-      <c r="Y10">
-        <v>139</v>
-      </c>
       <c r="Z10">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="AA10">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="AB10">
-        <v>281</v>
+        <v>270</v>
       </c>
       <c r="AC10">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="AD10">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="AE10">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AF10">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AG10">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="AH10">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AI10">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="AJ10">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="AK10">
         <v>15</v>
@@ -3848,85 +3848,85 @@
         <v>8</v>
       </c>
       <c r="C11">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H11">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="I11">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J11">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="K11">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="L11">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="M11">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="N11">
-        <v>52</v>
+        <v>35</v>
       </c>
       <c r="O11">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="P11">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="Q11">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="R11">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="S11">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="T11">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="U11">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="V11">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="W11">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="X11">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="Y11">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="Z11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AA11">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AB11">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="AC11">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="AD11">
         <v>13</v>
@@ -3970,100 +3970,100 @@
         <v>8</v>
       </c>
       <c r="D12">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E12">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F12">
+        <v>89</v>
+      </c>
+      <c r="G12">
+        <v>97</v>
+      </c>
+      <c r="H12">
+        <v>97</v>
+      </c>
+      <c r="I12">
+        <v>89</v>
+      </c>
+      <c r="J12">
+        <v>75</v>
+      </c>
+      <c r="K12">
+        <v>53</v>
+      </c>
+      <c r="L12">
+        <v>68</v>
+      </c>
+      <c r="M12">
+        <v>48</v>
+      </c>
+      <c r="N12">
+        <v>26</v>
+      </c>
+      <c r="O12">
+        <v>33</v>
+      </c>
+      <c r="P12">
+        <v>37</v>
+      </c>
+      <c r="Q12">
+        <v>29</v>
+      </c>
+      <c r="R12">
+        <v>36</v>
+      </c>
+      <c r="S12">
+        <v>28</v>
+      </c>
+      <c r="T12">
+        <v>23</v>
+      </c>
+      <c r="U12">
+        <v>29</v>
+      </c>
+      <c r="V12">
+        <v>27</v>
+      </c>
+      <c r="W12">
+        <v>22</v>
+      </c>
+      <c r="X12">
+        <v>31</v>
+      </c>
+      <c r="Y12">
+        <v>29</v>
+      </c>
+      <c r="Z12">
+        <v>54</v>
+      </c>
+      <c r="AA12">
         <v>93</v>
       </c>
-      <c r="G12">
-        <v>101</v>
-      </c>
-      <c r="H12">
-        <v>101</v>
-      </c>
-      <c r="I12">
-        <v>93</v>
-      </c>
-      <c r="J12">
-        <v>78</v>
-      </c>
-      <c r="K12">
-        <v>56</v>
-      </c>
-      <c r="L12">
-        <v>101</v>
-      </c>
-      <c r="M12">
-        <v>71</v>
-      </c>
-      <c r="N12">
-        <v>40</v>
-      </c>
-      <c r="O12">
-        <v>48</v>
-      </c>
-      <c r="P12">
-        <v>56</v>
-      </c>
-      <c r="Q12">
-        <v>42</v>
-      </c>
-      <c r="R12">
+      <c r="AB12">
+        <v>94</v>
+      </c>
+      <c r="AC12">
         <v>54</v>
       </c>
-      <c r="S12">
-        <v>41</v>
-      </c>
-      <c r="T12">
-        <v>34</v>
-      </c>
-      <c r="U12">
-        <v>42</v>
-      </c>
-      <c r="V12">
-        <v>39</v>
-      </c>
-      <c r="W12">
-        <v>32</v>
-      </c>
-      <c r="X12">
-        <v>45</v>
-      </c>
-      <c r="Y12">
-        <v>43</v>
-      </c>
-      <c r="Z12">
-        <v>56</v>
-      </c>
-      <c r="AA12">
-        <v>97</v>
-      </c>
-      <c r="AB12">
-        <v>97</v>
-      </c>
-      <c r="AC12">
-        <v>56</v>
-      </c>
       <c r="AD12">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="AE12">
         <v>48</v>
       </c>
       <c r="AF12">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="AG12">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="AH12">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="AI12">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AJ12">
         <v>27</v>
@@ -4086,109 +4086,109 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D13">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="E13">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="F13">
-        <v>258</v>
+        <v>245</v>
       </c>
       <c r="G13">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="H13">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="I13">
-        <v>258</v>
+        <v>250</v>
       </c>
       <c r="J13">
-        <v>216</v>
+        <v>205</v>
       </c>
       <c r="K13">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="L13">
-        <v>279</v>
+        <v>191</v>
       </c>
       <c r="M13">
+        <v>113</v>
+      </c>
+      <c r="N13">
+        <v>86</v>
+      </c>
+      <c r="O13">
+        <v>67</v>
+      </c>
+      <c r="P13">
+        <v>85</v>
+      </c>
+      <c r="Q13">
+        <v>94</v>
+      </c>
+      <c r="R13">
+        <v>97</v>
+      </c>
+      <c r="S13">
+        <v>77</v>
+      </c>
+      <c r="T13">
+        <v>83</v>
+      </c>
+      <c r="U13">
+        <v>72</v>
+      </c>
+      <c r="V13">
+        <v>65</v>
+      </c>
+      <c r="W13">
+        <v>64</v>
+      </c>
+      <c r="X13">
+        <v>92</v>
+      </c>
+      <c r="Y13">
+        <v>117</v>
+      </c>
+      <c r="Z13">
+        <v>147</v>
+      </c>
+      <c r="AA13">
+        <v>256</v>
+      </c>
+      <c r="AB13">
+        <v>263</v>
+      </c>
+      <c r="AC13">
+        <v>150</v>
+      </c>
+      <c r="AD13">
+        <v>246</v>
+      </c>
+      <c r="AE13">
         <v>165</v>
       </c>
-      <c r="N13">
-        <v>131</v>
-      </c>
-      <c r="O13">
-        <v>101</v>
-      </c>
-      <c r="P13">
-        <v>128</v>
-      </c>
-      <c r="Q13">
-        <v>138</v>
-      </c>
-      <c r="R13">
-        <v>143</v>
-      </c>
-      <c r="S13">
-        <v>114</v>
-      </c>
-      <c r="T13">
-        <v>123</v>
-      </c>
-      <c r="U13">
-        <v>105</v>
-      </c>
-      <c r="V13">
-        <v>95</v>
-      </c>
-      <c r="W13">
-        <v>93</v>
-      </c>
-      <c r="X13">
-        <v>137</v>
-      </c>
-      <c r="Y13">
-        <v>173</v>
-      </c>
-      <c r="Z13">
-        <v>154</v>
-      </c>
-      <c r="AA13">
-        <v>268</v>
-      </c>
-      <c r="AB13">
-        <v>268</v>
-      </c>
-      <c r="AC13">
-        <v>154</v>
-      </c>
-      <c r="AD13">
-        <v>259</v>
-      </c>
-      <c r="AE13">
-        <v>171</v>
-      </c>
       <c r="AF13">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="AG13">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AH13">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="AI13">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AJ13">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="AK13">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AL13">
         <v>7</v>
@@ -4208,103 +4208,103 @@
         <v>19</v>
       </c>
       <c r="D14">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E14">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F14">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="G14">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="H14">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="I14">
-        <v>328</v>
+        <v>315</v>
       </c>
       <c r="J14">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="K14">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="L14">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="M14">
-        <v>100</v>
+        <v>68</v>
       </c>
       <c r="N14">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="O14">
+        <v>31</v>
+      </c>
+      <c r="P14">
+        <v>39</v>
+      </c>
+      <c r="Q14">
+        <v>41</v>
+      </c>
+      <c r="R14">
+        <v>35</v>
+      </c>
+      <c r="S14">
+        <v>30</v>
+      </c>
+      <c r="T14">
+        <v>34</v>
+      </c>
+      <c r="U14">
+        <v>34</v>
+      </c>
+      <c r="V14">
+        <v>40</v>
+      </c>
+      <c r="W14">
         <v>46</v>
       </c>
-      <c r="P14">
-        <v>57</v>
-      </c>
-      <c r="Q14">
-        <v>60</v>
-      </c>
-      <c r="R14">
-        <v>52</v>
-      </c>
-      <c r="S14">
-        <v>44</v>
-      </c>
-      <c r="T14">
-        <v>51</v>
-      </c>
-      <c r="U14">
-        <v>49</v>
-      </c>
-      <c r="V14">
-        <v>59</v>
-      </c>
-      <c r="W14">
-        <v>68</v>
-      </c>
       <c r="X14">
-        <v>109</v>
+        <v>73</v>
       </c>
       <c r="Y14">
-        <v>121</v>
+        <v>81</v>
       </c>
       <c r="Z14">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="AA14">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="AB14">
-        <v>340</v>
+        <v>324</v>
       </c>
       <c r="AC14">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="AD14">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="AE14">
-        <v>355</v>
+        <v>343</v>
       </c>
       <c r="AF14">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="AG14">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="AH14">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="AI14">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="AJ14">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="AK14">
         <v>21</v>
@@ -4324,109 +4324,109 @@
         <v>6</v>
       </c>
       <c r="C15">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="E15">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="F15">
+        <v>263</v>
+      </c>
+      <c r="G15">
+        <v>281</v>
+      </c>
+      <c r="H15">
+        <v>288</v>
+      </c>
+      <c r="I15">
+        <v>265</v>
+      </c>
+      <c r="J15">
+        <v>222</v>
+      </c>
+      <c r="K15">
+        <v>155</v>
+      </c>
+      <c r="L15">
+        <v>151</v>
+      </c>
+      <c r="M15">
+        <v>92</v>
+      </c>
+      <c r="N15">
+        <v>80</v>
+      </c>
+      <c r="O15">
+        <v>79</v>
+      </c>
+      <c r="P15">
+        <v>95</v>
+      </c>
+      <c r="Q15">
+        <v>80</v>
+      </c>
+      <c r="R15">
+        <v>92</v>
+      </c>
+      <c r="S15">
+        <v>74</v>
+      </c>
+      <c r="T15">
+        <v>77</v>
+      </c>
+      <c r="U15">
+        <v>81</v>
+      </c>
+      <c r="V15">
+        <v>79</v>
+      </c>
+      <c r="W15">
+        <v>103</v>
+      </c>
+      <c r="X15">
+        <v>129</v>
+      </c>
+      <c r="Y15">
+        <v>175</v>
+      </c>
+      <c r="Z15">
+        <v>158</v>
+      </c>
+      <c r="AA15">
+        <v>277</v>
+      </c>
+      <c r="AB15">
         <v>273</v>
       </c>
-      <c r="G15">
-        <v>295</v>
-      </c>
-      <c r="H15">
-        <v>295</v>
-      </c>
-      <c r="I15">
-        <v>273</v>
-      </c>
-      <c r="J15">
-        <v>229</v>
-      </c>
-      <c r="K15">
-        <v>162</v>
-      </c>
-      <c r="L15">
-        <v>219</v>
-      </c>
-      <c r="M15">
-        <v>137</v>
-      </c>
-      <c r="N15">
-        <v>121</v>
-      </c>
-      <c r="O15">
-        <v>117</v>
-      </c>
-      <c r="P15">
-        <v>140</v>
-      </c>
-      <c r="Q15">
-        <v>116</v>
-      </c>
-      <c r="R15">
-        <v>136</v>
-      </c>
-      <c r="S15">
-        <v>107</v>
-      </c>
-      <c r="T15">
-        <v>116</v>
-      </c>
-      <c r="U15">
-        <v>117</v>
-      </c>
-      <c r="V15">
-        <v>114</v>
-      </c>
-      <c r="W15">
+      <c r="AC15">
+        <v>156</v>
+      </c>
+      <c r="AD15">
+        <v>280</v>
+      </c>
+      <c r="AE15">
+        <v>208</v>
+      </c>
+      <c r="AF15">
+        <v>145</v>
+      </c>
+      <c r="AG15">
+        <v>112</v>
+      </c>
+      <c r="AH15">
         <v>152</v>
       </c>
-      <c r="X15">
-        <v>194</v>
-      </c>
-      <c r="Y15">
-        <v>258</v>
-      </c>
-      <c r="Z15">
-        <v>162</v>
-      </c>
-      <c r="AA15">
-        <v>283</v>
-      </c>
-      <c r="AB15">
-        <v>283</v>
-      </c>
-      <c r="AC15">
-        <v>162</v>
-      </c>
-      <c r="AD15">
-        <v>294</v>
-      </c>
-      <c r="AE15">
-        <v>215</v>
-      </c>
-      <c r="AF15">
-        <v>149</v>
-      </c>
-      <c r="AG15">
-        <v>115</v>
-      </c>
-      <c r="AH15">
-        <v>161</v>
-      </c>
       <c r="AI15">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="AJ15">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="AK15">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AL15">
         <v>8</v>
@@ -4443,106 +4443,106 @@
         <v>5</v>
       </c>
       <c r="C16">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D16">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="E16">
-        <v>307</v>
+        <v>295</v>
       </c>
       <c r="F16">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="G16">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="H16">
-        <v>397</v>
+        <v>380</v>
       </c>
       <c r="I16">
-        <v>367</v>
+        <v>354</v>
       </c>
       <c r="J16">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="K16">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="L16">
-        <v>289</v>
+        <v>195</v>
       </c>
       <c r="M16">
-        <v>236</v>
+        <v>158</v>
       </c>
       <c r="N16">
-        <v>224</v>
+        <v>151</v>
       </c>
       <c r="O16">
-        <v>207</v>
+        <v>139</v>
       </c>
       <c r="P16">
-        <v>202</v>
+        <v>137</v>
       </c>
       <c r="Q16">
-        <v>171</v>
+        <v>118</v>
       </c>
       <c r="R16">
-        <v>225</v>
+        <v>155</v>
       </c>
       <c r="S16">
-        <v>181</v>
+        <v>124</v>
       </c>
       <c r="T16">
-        <v>195</v>
+        <v>133</v>
       </c>
       <c r="U16">
-        <v>189</v>
+        <v>130</v>
       </c>
       <c r="V16">
-        <v>188</v>
+        <v>129</v>
       </c>
       <c r="W16">
-        <v>171</v>
+        <v>117</v>
       </c>
       <c r="X16">
-        <v>268</v>
+        <v>178</v>
       </c>
       <c r="Y16">
-        <v>297</v>
+        <v>196</v>
       </c>
       <c r="Z16">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="AA16">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="AB16">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="AC16">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="AD16">
-        <v>331</v>
+        <v>310</v>
       </c>
       <c r="AE16">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="AF16">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AG16">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="AH16">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="AI16">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AJ16">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="AK16">
         <v>15</v>
@@ -4562,109 +4562,109 @@
         <v>15</v>
       </c>
       <c r="C17">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D17">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="E17">
-        <v>379</v>
+        <v>368</v>
       </c>
       <c r="F17">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="G17">
-        <v>488</v>
+        <v>473</v>
       </c>
       <c r="H17">
-        <v>488</v>
+        <v>475</v>
       </c>
       <c r="I17">
-        <v>452</v>
+        <v>430</v>
       </c>
       <c r="J17">
-        <v>379</v>
+        <v>361</v>
       </c>
       <c r="K17">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="L17">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="M17">
-        <v>175</v>
+        <v>121</v>
       </c>
       <c r="N17">
+        <v>87</v>
+      </c>
+      <c r="O17">
+        <v>98</v>
+      </c>
+      <c r="P17">
+        <v>123</v>
+      </c>
+      <c r="Q17">
         <v>132</v>
       </c>
-      <c r="O17">
-        <v>143</v>
-      </c>
-      <c r="P17">
-        <v>185</v>
-      </c>
-      <c r="Q17">
-        <v>190</v>
-      </c>
       <c r="R17">
+        <v>95</v>
+      </c>
+      <c r="S17">
+        <v>131</v>
+      </c>
+      <c r="T17">
+        <v>119</v>
+      </c>
+      <c r="U17">
         <v>140</v>
       </c>
-      <c r="S17">
-        <v>193</v>
-      </c>
-      <c r="T17">
-        <v>178</v>
-      </c>
-      <c r="U17">
-        <v>201</v>
-      </c>
       <c r="V17">
-        <v>219</v>
+        <v>150</v>
       </c>
       <c r="W17">
-        <v>285</v>
+        <v>196</v>
       </c>
       <c r="X17">
-        <v>313</v>
+        <v>213</v>
       </c>
       <c r="Y17">
-        <v>392</v>
+        <v>259</v>
       </c>
       <c r="Z17">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="AA17">
-        <v>468</v>
+        <v>451</v>
       </c>
       <c r="AB17">
-        <v>468</v>
+        <v>447</v>
       </c>
       <c r="AC17">
-        <v>269</v>
+        <v>256</v>
       </c>
       <c r="AD17">
-        <v>488</v>
+        <v>470</v>
       </c>
       <c r="AE17">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="AF17">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="AG17">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="AH17">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="AI17">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="AJ17">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AK17">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="AL17">
         <v>14</v>
@@ -4681,112 +4681,112 @@
         <v>4</v>
       </c>
       <c r="C18">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18">
-        <v>576</v>
+        <v>563</v>
       </c>
       <c r="E18">
-        <v>811</v>
+        <v>776</v>
       </c>
       <c r="F18">
-        <v>967</v>
+        <v>923</v>
       </c>
       <c r="G18">
-        <v>1046</v>
+        <v>1020</v>
       </c>
       <c r="H18">
-        <v>1046</v>
+        <v>1005</v>
       </c>
       <c r="I18">
-        <v>967</v>
+        <v>932</v>
       </c>
       <c r="J18">
-        <v>811</v>
+        <v>788</v>
       </c>
       <c r="K18">
-        <v>576</v>
+        <v>554</v>
       </c>
       <c r="L18">
-        <v>594</v>
+        <v>408</v>
       </c>
       <c r="M18">
-        <v>516</v>
+        <v>347</v>
       </c>
       <c r="N18">
-        <v>565</v>
+        <v>380</v>
       </c>
       <c r="O18">
-        <v>682</v>
+        <v>456</v>
       </c>
       <c r="P18">
-        <v>530</v>
+        <v>354</v>
       </c>
       <c r="Q18">
-        <v>608</v>
+        <v>415</v>
       </c>
       <c r="R18">
-        <v>472</v>
+        <v>325</v>
       </c>
       <c r="S18">
-        <v>488</v>
+        <v>331</v>
       </c>
       <c r="T18">
-        <v>493</v>
+        <v>334</v>
       </c>
       <c r="U18">
-        <v>493</v>
+        <v>335</v>
       </c>
       <c r="V18">
-        <v>582</v>
+        <v>394</v>
       </c>
       <c r="W18">
-        <v>547</v>
+        <v>376</v>
       </c>
       <c r="X18">
-        <v>534</v>
+        <v>361</v>
       </c>
       <c r="Y18">
-        <v>689</v>
+        <v>466</v>
       </c>
       <c r="Z18">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="AA18">
-        <v>1002</v>
+        <v>953</v>
       </c>
       <c r="AB18">
-        <v>1002</v>
+        <v>981</v>
       </c>
       <c r="AC18">
-        <v>576</v>
+        <v>557</v>
       </c>
       <c r="AD18">
-        <v>750</v>
+        <v>704</v>
       </c>
       <c r="AE18">
-        <v>686</v>
+        <v>677</v>
       </c>
       <c r="AF18">
-        <v>475</v>
+        <v>467</v>
       </c>
       <c r="AG18">
-        <v>419</v>
+        <v>407</v>
       </c>
       <c r="AH18">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="AI18">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="AJ18">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="AK18">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AL18">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AM18">
         <v>5</v>
